--- a/Deliverables/List of Functions.xlsx
+++ b/Deliverables/List of Functions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholas Di Ciero\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholas Di Ciero\Documents\GitHub\mate\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F51CC4-31B2-4AA6-95E5-3806C48EC4C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1296B7F-D1B2-475D-8C3C-ACF571AB43D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31440" yWindow="3090" windowWidth="24750" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hyperlink </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We Provided link (called hyperlink) to another HTML document and CSS using the link rel and link href. These hyperlinks, a distinct feature in HTML, greatly help the users in navigating the web and enrich the users' experience. </t>
   </si>
   <si>
     <t xml:space="preserve">CSS </t>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>We created a style.css were we included all our Style are included. This will help demonstrate design principles clearly, with consistement alignment, promimity and also avoiding repetition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We provided a link (called hyperlink) to another HTML document and CSS using the link rel and link href.. These hyperlinks, a distinct feature in HTML, greatly help the users in navigating the web and enrich the users' experience. </t>
   </si>
 </sst>
 </file>
@@ -608,7 +608,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,13 +624,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="41.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -644,7 +644,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -653,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -665,46 +665,46 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
